--- a/src/main/resources/Excel/DOMAIN.xlsx
+++ b/src/main/resources/Excel/DOMAIN.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="домены-1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="домены-2" sheetId="2" r:id="rId5"/>
+    <sheet name="домены-1" sheetId="1" r:id="rId1"/>
+    <sheet name="домены-2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'домены-1'!$A$1:$C$131</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'домены-2'!$A$1:$C$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'домены-1'!$A$1:$C$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'домены-2'!$A$1:$C$272</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1241,69 +1245,72 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Exo 2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Exo 2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Exo 2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Exo 2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Exo 2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Exo 2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Exo 2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Exo 2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Exo 2"/>
     </font>
@@ -1313,7 +1320,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1323,7 +1330,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1337,75 +1350,49 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1595,25 +1582,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.0"/>
-    <col customWidth="1" min="2" max="2" width="19.63"/>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,7 +1625,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1642,7 +1634,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1651,7 +1643,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1652,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1661,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1670,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1679,7 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1696,7 +1688,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1697,7 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1714,7 +1706,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1723,7 +1715,7 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1732,7 +1724,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1741,7 +1733,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +1742,7 @@
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1759,7 +1751,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1768,7 +1760,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1777,7 +1769,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +1778,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1787,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1804,7 +1796,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1813,7 +1805,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1822,7 +1814,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1831,7 +1823,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1840,7 +1832,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1849,7 +1841,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1858,7 +1850,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1867,7 +1859,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1876,7 +1868,7 @@
       </c>
       <c r="C29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1885,7 +1877,7 @@
       </c>
       <c r="C30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -1894,7 +1886,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -1903,7 +1895,7 @@
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1912,7 +1904,7 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -1921,7 +1913,7 @@
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -1930,7 +1922,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -1939,7 +1931,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1948,7 +1940,7 @@
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
@@ -1957,7 +1949,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -1966,7 +1958,7 @@
       </c>
       <c r="C39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -1975,7 +1967,7 @@
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -1984,7 +1976,7 @@
       </c>
       <c r="C41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
@@ -1993,7 +1985,7 @@
       </c>
       <c r="C42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
@@ -2002,7 +1994,7 @@
       </c>
       <c r="C43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -2011,7 +2003,7 @@
       </c>
       <c r="C44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
@@ -2020,7 +2012,7 @@
       </c>
       <c r="C45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
@@ -2029,7 +2021,7 @@
       </c>
       <c r="C46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
@@ -2038,7 +2030,7 @@
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
@@ -2047,7 +2039,7 @@
       </c>
       <c r="C48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -2056,7 +2048,7 @@
       </c>
       <c r="C49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
@@ -2065,7 +2057,7 @@
       </c>
       <c r="C50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2066,7 @@
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
@@ -2083,7 +2075,7 @@
       </c>
       <c r="C52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
@@ -2092,7 +2084,7 @@
       </c>
       <c r="C53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -2101,7 +2093,7 @@
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -2110,7 +2102,7 @@
       </c>
       <c r="C55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -2119,7 +2111,7 @@
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
@@ -2128,7 +2120,7 @@
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
@@ -2137,7 +2129,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
@@ -2146,7 +2138,7 @@
       </c>
       <c r="C59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -2155,7 +2147,7 @@
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -2164,7 +2156,7 @@
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -2173,7 +2165,7 @@
       </c>
       <c r="C62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -2182,7 +2174,7 @@
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -2191,7 +2183,7 @@
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>67</v>
       </c>
@@ -2200,7 +2192,7 @@
       </c>
       <c r="C65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>68</v>
       </c>
@@ -2209,7 +2201,7 @@
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>69</v>
       </c>
@@ -2218,7 +2210,7 @@
       </c>
       <c r="C67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -2227,7 +2219,7 @@
       </c>
       <c r="C68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>71</v>
       </c>
@@ -2236,7 +2228,7 @@
       </c>
       <c r="C69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>72</v>
       </c>
@@ -2245,7 +2237,7 @@
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>73</v>
       </c>
@@ -2254,7 +2246,7 @@
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>74</v>
       </c>
@@ -2263,7 +2255,7 @@
       </c>
       <c r="C72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>75</v>
       </c>
@@ -2272,7 +2264,7 @@
       </c>
       <c r="C73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>76</v>
       </c>
@@ -2281,7 +2273,7 @@
       </c>
       <c r="C74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>77</v>
       </c>
@@ -2290,7 +2282,7 @@
       </c>
       <c r="C75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>78</v>
       </c>
@@ -2299,7 +2291,7 @@
       </c>
       <c r="C76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>79</v>
       </c>
@@ -2308,7 +2300,7 @@
       </c>
       <c r="C77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>80</v>
       </c>
@@ -2317,7 +2309,7 @@
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>81</v>
       </c>
@@ -2326,7 +2318,7 @@
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>82</v>
       </c>
@@ -2335,7 +2327,7 @@
       </c>
       <c r="C80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
         <v>83</v>
       </c>
@@ -2344,7 +2336,7 @@
       </c>
       <c r="C81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3">
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
@@ -2353,7 +2345,7 @@
       </c>
       <c r="C82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>85</v>
       </c>
@@ -2362,7 +2354,7 @@
       </c>
       <c r="C83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>86</v>
       </c>
@@ -2371,7 +2363,7 @@
       </c>
       <c r="C84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>87</v>
       </c>
@@ -2380,7 +2372,7 @@
       </c>
       <c r="C85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>88</v>
       </c>
@@ -2389,7 +2381,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>90</v>
       </c>
@@ -2398,7 +2390,7 @@
       </c>
       <c r="C87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3">
       <c r="A88" s="6" t="s">
         <v>91</v>
       </c>
@@ -2407,7 +2399,7 @@
       </c>
       <c r="C88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3">
       <c r="A89" s="6" t="s">
         <v>92</v>
       </c>
@@ -2416,7 +2408,7 @@
       </c>
       <c r="C89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>93</v>
       </c>
@@ -2425,7 +2417,7 @@
       </c>
       <c r="C90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>94</v>
       </c>
@@ -2434,7 +2426,7 @@
       </c>
       <c r="C91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>95</v>
       </c>
@@ -2443,7 +2435,7 @@
       </c>
       <c r="C92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>96</v>
       </c>
@@ -2452,7 +2444,7 @@
       </c>
       <c r="C93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>97</v>
       </c>
@@ -2461,7 +2453,7 @@
       </c>
       <c r="C94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>98</v>
       </c>
@@ -2470,7 +2462,7 @@
       </c>
       <c r="C95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>99</v>
       </c>
@@ -2479,7 +2471,7 @@
       </c>
       <c r="C96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>100</v>
       </c>
@@ -2488,7 +2480,7 @@
       </c>
       <c r="C97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>101</v>
       </c>
@@ -2497,7 +2489,7 @@
       </c>
       <c r="C98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>102</v>
       </c>
@@ -2506,7 +2498,7 @@
       </c>
       <c r="C99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>103</v>
       </c>
@@ -2515,7 +2507,7 @@
       </c>
       <c r="C100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>104</v>
       </c>
@@ -2524,7 +2516,7 @@
       </c>
       <c r="C101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>105</v>
       </c>
@@ -2533,7 +2525,7 @@
       </c>
       <c r="C102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>106</v>
       </c>
@@ -2542,7 +2534,7 @@
       </c>
       <c r="C103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>107</v>
       </c>
@@ -2551,7 +2543,7 @@
       </c>
       <c r="C104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>108</v>
       </c>
@@ -2560,7 +2552,7 @@
       </c>
       <c r="C105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>109</v>
       </c>
@@ -2569,7 +2561,7 @@
       </c>
       <c r="C106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>110</v>
       </c>
@@ -2578,7 +2570,7 @@
       </c>
       <c r="C107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>111</v>
       </c>
@@ -2587,7 +2579,7 @@
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
@@ -2596,7 +2588,7 @@
       </c>
       <c r="C109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>113</v>
       </c>
@@ -2605,7 +2597,7 @@
       </c>
       <c r="C110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>114</v>
       </c>
@@ -2614,7 +2606,7 @@
       </c>
       <c r="C111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>115</v>
       </c>
@@ -2623,7 +2615,7 @@
       </c>
       <c r="C112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>116</v>
       </c>
@@ -2632,7 +2624,7 @@
       </c>
       <c r="C113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
         <v>117</v>
       </c>
@@ -2641,7 +2633,7 @@
       </c>
       <c r="C114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3">
       <c r="A115" s="6" t="s">
         <v>118</v>
       </c>
@@ -2650,7 +2642,7 @@
       </c>
       <c r="C115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
         <v>119</v>
       </c>
@@ -2659,7 +2651,7 @@
       </c>
       <c r="C116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3">
       <c r="A117" s="6" t="s">
         <v>120</v>
       </c>
@@ -2668,7 +2660,7 @@
       </c>
       <c r="C117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3">
       <c r="A118" s="6" t="s">
         <v>121</v>
       </c>
@@ -2677,7 +2669,7 @@
       </c>
       <c r="C118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
         <v>122</v>
       </c>
@@ -2686,7 +2678,7 @@
       </c>
       <c r="C119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
         <v>123</v>
       </c>
@@ -2695,7 +2687,7 @@
       </c>
       <c r="C120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3">
       <c r="A121" s="6" t="s">
         <v>124</v>
       </c>
@@ -2704,7 +2696,7 @@
       </c>
       <c r="C121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>125</v>
       </c>
@@ -2713,7 +2705,7 @@
       </c>
       <c r="C122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
         <v>126</v>
       </c>
@@ -2722,7 +2714,7 @@
       </c>
       <c r="C123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3">
       <c r="A124" s="6" t="s">
         <v>127</v>
       </c>
@@ -2731,7 +2723,7 @@
       </c>
       <c r="C124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>128</v>
       </c>
@@ -2740,7 +2732,7 @@
       </c>
       <c r="C125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>129</v>
       </c>
@@ -2749,7 +2741,7 @@
       </c>
       <c r="C126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>130</v>
       </c>
@@ -2758,7 +2750,7 @@
       </c>
       <c r="C127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>131</v>
       </c>
@@ -2767,7 +2759,7 @@
       </c>
       <c r="C128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>132</v>
       </c>
@@ -2776,7 +2768,7 @@
       </c>
       <c r="C129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
         <v>133</v>
       </c>
@@ -2785,7 +2777,7 @@
       </c>
       <c r="C130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
         <v>134</v>
       </c>
@@ -2795,159 +2787,160 @@
       <c r="C131" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$131"/>
+  <autoFilter ref="A1:C131"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
-    <hyperlink r:id="rId28" ref="A29"/>
-    <hyperlink r:id="rId29" ref="A30"/>
-    <hyperlink r:id="rId30" ref="A31"/>
-    <hyperlink r:id="rId31" ref="A32"/>
-    <hyperlink r:id="rId32" ref="A33"/>
-    <hyperlink r:id="rId33" ref="A34"/>
-    <hyperlink r:id="rId34" ref="A35"/>
-    <hyperlink r:id="rId35" ref="A36"/>
-    <hyperlink r:id="rId36" ref="A37"/>
-    <hyperlink r:id="rId37" ref="A38"/>
-    <hyperlink r:id="rId38" ref="A39"/>
-    <hyperlink r:id="rId39" ref="A40"/>
-    <hyperlink r:id="rId40" ref="A41"/>
-    <hyperlink r:id="rId41" ref="A42"/>
-    <hyperlink r:id="rId42" ref="A43"/>
-    <hyperlink r:id="rId43" ref="A44"/>
-    <hyperlink r:id="rId44" ref="A45"/>
-    <hyperlink r:id="rId45" ref="A46"/>
-    <hyperlink r:id="rId46" ref="A47"/>
-    <hyperlink r:id="rId47" ref="A48"/>
-    <hyperlink r:id="rId48" ref="A49"/>
-    <hyperlink r:id="rId49" ref="A50"/>
-    <hyperlink r:id="rId50" ref="A51"/>
-    <hyperlink r:id="rId51" ref="A52"/>
-    <hyperlink r:id="rId52" ref="A53"/>
-    <hyperlink r:id="rId53" ref="A54"/>
-    <hyperlink r:id="rId54" ref="A55"/>
-    <hyperlink r:id="rId55" ref="A56"/>
-    <hyperlink r:id="rId56" ref="A57"/>
-    <hyperlink r:id="rId57" ref="A58"/>
-    <hyperlink r:id="rId58" ref="A59"/>
-    <hyperlink r:id="rId59" ref="A60"/>
-    <hyperlink r:id="rId60" ref="A61"/>
-    <hyperlink r:id="rId61" ref="A62"/>
-    <hyperlink r:id="rId62" ref="A63"/>
-    <hyperlink r:id="rId63" ref="A64"/>
-    <hyperlink r:id="rId64" ref="A65"/>
-    <hyperlink r:id="rId65" ref="A66"/>
-    <hyperlink r:id="rId66" ref="A67"/>
-    <hyperlink r:id="rId67" ref="A68"/>
-    <hyperlink r:id="rId68" ref="A69"/>
-    <hyperlink r:id="rId69" ref="A70"/>
-    <hyperlink r:id="rId70" ref="A71"/>
-    <hyperlink r:id="rId71" ref="A72"/>
-    <hyperlink r:id="rId72" ref="A73"/>
-    <hyperlink r:id="rId73" ref="A74"/>
-    <hyperlink r:id="rId74" ref="A75"/>
-    <hyperlink r:id="rId75" ref="A76"/>
-    <hyperlink r:id="rId76" ref="A77"/>
-    <hyperlink r:id="rId77" ref="A78"/>
-    <hyperlink r:id="rId78" ref="A79"/>
-    <hyperlink r:id="rId79" ref="A80"/>
-    <hyperlink r:id="rId80" ref="A81"/>
-    <hyperlink r:id="rId81" ref="A82"/>
-    <hyperlink r:id="rId82" ref="A83"/>
-    <hyperlink r:id="rId83" ref="A84"/>
-    <hyperlink r:id="rId84" ref="A85"/>
-    <hyperlink r:id="rId85" ref="A86"/>
-    <hyperlink r:id="rId86" ref="A87"/>
-    <hyperlink r:id="rId87" ref="A88"/>
-    <hyperlink r:id="rId88" ref="A89"/>
-    <hyperlink r:id="rId89" ref="A90"/>
-    <hyperlink r:id="rId90" ref="A91"/>
-    <hyperlink r:id="rId91" ref="A92"/>
-    <hyperlink r:id="rId92" ref="A93"/>
-    <hyperlink r:id="rId93" ref="A94"/>
-    <hyperlink r:id="rId94" ref="A95"/>
-    <hyperlink r:id="rId95" ref="A96"/>
-    <hyperlink r:id="rId96" ref="A97"/>
-    <hyperlink r:id="rId97" ref="A98"/>
-    <hyperlink r:id="rId98" ref="A99"/>
-    <hyperlink r:id="rId99" ref="A100"/>
-    <hyperlink r:id="rId100" ref="A101"/>
-    <hyperlink r:id="rId101" ref="A102"/>
-    <hyperlink r:id="rId102" ref="A103"/>
-    <hyperlink r:id="rId103" ref="A104"/>
-    <hyperlink r:id="rId104" ref="A105"/>
-    <hyperlink r:id="rId105" ref="A106"/>
-    <hyperlink r:id="rId106" ref="A107"/>
-    <hyperlink r:id="rId107" ref="A108"/>
-    <hyperlink r:id="rId108" ref="A109"/>
-    <hyperlink r:id="rId109" ref="A110"/>
-    <hyperlink r:id="rId110" ref="A111"/>
-    <hyperlink r:id="rId111" ref="A112"/>
-    <hyperlink r:id="rId112" ref="A113"/>
-    <hyperlink r:id="rId113" ref="A114"/>
-    <hyperlink r:id="rId114" ref="A115"/>
-    <hyperlink r:id="rId115" ref="A116"/>
-    <hyperlink r:id="rId116" ref="A117"/>
-    <hyperlink r:id="rId117" ref="A118"/>
-    <hyperlink r:id="rId118" ref="A119"/>
-    <hyperlink r:id="rId119" ref="A120"/>
-    <hyperlink r:id="rId120" ref="A121"/>
-    <hyperlink r:id="rId121" ref="A122"/>
-    <hyperlink r:id="rId122" ref="A123"/>
-    <hyperlink r:id="rId123" ref="A124"/>
-    <hyperlink r:id="rId124" ref="A125"/>
-    <hyperlink r:id="rId125" ref="A126"/>
-    <hyperlink r:id="rId126" ref="A127"/>
-    <hyperlink r:id="rId127" ref="A128"/>
-    <hyperlink r:id="rId128" ref="A129"/>
-    <hyperlink r:id="rId129" ref="A130"/>
-    <hyperlink r:id="rId130" ref="A131"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
   </hyperlinks>
-  <drawing r:id="rId131"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.25"/>
-    <col customWidth="1" min="2" max="2" width="15.88"/>
-    <col customWidth="1" min="3" max="3" width="21.13"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>135</v>
       </c>
@@ -2967,7 +2960,7 @@
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
@@ -2976,7 +2969,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>138</v>
       </c>
@@ -2985,7 +2978,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>139</v>
       </c>
@@ -2994,7 +2987,7 @@
       </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>140</v>
       </c>
@@ -3003,7 +2996,7 @@
       </c>
       <c r="C6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
@@ -3012,7 +3005,7 @@
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>142</v>
       </c>
@@ -3021,7 +3014,7 @@
       </c>
       <c r="C8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>143</v>
       </c>
@@ -3030,7 +3023,7 @@
       </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>144</v>
       </c>
@@ -3039,7 +3032,7 @@
       </c>
       <c r="C10" s="10"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>145</v>
       </c>
@@ -3048,7 +3041,7 @@
       </c>
       <c r="C11" s="10"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>146</v>
       </c>
@@ -3057,7 +3050,7 @@
       </c>
       <c r="C12" s="10"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>147</v>
       </c>
@@ -3066,7 +3059,7 @@
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>148</v>
       </c>
@@ -3075,7 +3068,7 @@
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>149</v>
       </c>
@@ -3084,7 +3077,7 @@
       </c>
       <c r="C15" s="10"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>150</v>
       </c>
@@ -3093,7 +3086,7 @@
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
@@ -3102,7 +3095,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>152</v>
       </c>
@@ -3111,7 +3104,7 @@
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>153</v>
       </c>
@@ -3120,7 +3113,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>154</v>
       </c>
@@ -3129,7 +3122,7 @@
       </c>
       <c r="C20" s="10"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>155</v>
       </c>
@@ -3138,7 +3131,7 @@
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>156</v>
       </c>
@@ -3147,7 +3140,7 @@
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>157</v>
       </c>
@@ -3156,7 +3149,7 @@
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>158</v>
       </c>
@@ -3165,7 +3158,7 @@
       </c>
       <c r="C24" s="10"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>159</v>
       </c>
@@ -3174,7 +3167,7 @@
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>160</v>
       </c>
@@ -3183,7 +3176,7 @@
       </c>
       <c r="C26" s="10"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>161</v>
       </c>
@@ -3192,7 +3185,7 @@
       </c>
       <c r="C27" s="10"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>162</v>
       </c>
@@ -3201,7 +3194,7 @@
       </c>
       <c r="C28" s="10"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>163</v>
       </c>
@@ -3210,7 +3203,7 @@
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>164</v>
       </c>
@@ -3219,7 +3212,7 @@
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>165</v>
       </c>
@@ -3228,7 +3221,7 @@
       </c>
       <c r="C31" s="10"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>166</v>
       </c>
@@ -3237,7 +3230,7 @@
       </c>
       <c r="C32" s="10"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="11" t="s">
         <v>167</v>
       </c>
@@ -3246,7 +3239,7 @@
       </c>
       <c r="C33" s="10"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>168</v>
       </c>
@@ -3255,7 +3248,7 @@
       </c>
       <c r="C34" s="10"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>169</v>
       </c>
@@ -3264,7 +3257,7 @@
       </c>
       <c r="C35" s="10"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>170</v>
       </c>
@@ -3273,7 +3266,7 @@
       </c>
       <c r="C36" s="10"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>171</v>
       </c>
@@ -3282,7 +3275,7 @@
       </c>
       <c r="C37" s="10"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>172</v>
       </c>
@@ -3291,7 +3284,7 @@
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>173</v>
       </c>
@@ -3300,7 +3293,7 @@
       </c>
       <c r="C39" s="10"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>174</v>
       </c>
@@ -3309,7 +3302,7 @@
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>175</v>
       </c>
@@ -3318,7 +3311,7 @@
       </c>
       <c r="C41" s="10"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>176</v>
       </c>
@@ -3327,7 +3320,7 @@
       </c>
       <c r="C42" s="10"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
         <v>177</v>
       </c>
@@ -3336,7 +3329,7 @@
       </c>
       <c r="C43" s="10"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
         <v>178</v>
       </c>
@@ -3345,7 +3338,7 @@
       </c>
       <c r="C44" s="10"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>179</v>
       </c>
@@ -3354,7 +3347,7 @@
       </c>
       <c r="C45" s="10"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
         <v>180</v>
       </c>
@@ -3363,7 +3356,7 @@
       </c>
       <c r="C46" s="10"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>181</v>
       </c>
@@ -3372,7 +3365,7 @@
       </c>
       <c r="C47" s="10"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3">
       <c r="A48" s="6" t="s">
         <v>182</v>
       </c>
@@ -3381,7 +3374,7 @@
       </c>
       <c r="C48" s="10"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
         <v>183</v>
       </c>
@@ -3390,7 +3383,7 @@
       </c>
       <c r="C49" s="10"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>184</v>
       </c>
@@ -3399,7 +3392,7 @@
       </c>
       <c r="C50" s="10"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
         <v>185</v>
       </c>
@@ -3408,7 +3401,7 @@
       </c>
       <c r="C51" s="10"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
         <v>186</v>
       </c>
@@ -3417,7 +3410,7 @@
       </c>
       <c r="C52" s="10"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3">
       <c r="A53" s="6" t="s">
         <v>187</v>
       </c>
@@ -3426,7 +3419,7 @@
       </c>
       <c r="C53" s="10"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3">
       <c r="A54" s="6" t="s">
         <v>188</v>
       </c>
@@ -3435,7 +3428,7 @@
       </c>
       <c r="C54" s="10"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3">
       <c r="A55" s="6" t="s">
         <v>189</v>
       </c>
@@ -3444,7 +3437,7 @@
       </c>
       <c r="C55" s="10"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3">
       <c r="A56" s="6" t="s">
         <v>190</v>
       </c>
@@ -3453,7 +3446,7 @@
       </c>
       <c r="C56" s="10"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3">
       <c r="A57" s="6" t="s">
         <v>191</v>
       </c>
@@ -3462,7 +3455,7 @@
       </c>
       <c r="C57" s="10"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3">
       <c r="A58" s="6" t="s">
         <v>192</v>
       </c>
@@ -3471,7 +3464,7 @@
       </c>
       <c r="C58" s="10"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
         <v>193</v>
       </c>
@@ -3480,7 +3473,7 @@
       </c>
       <c r="C59" s="10"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3">
       <c r="A60" s="6" t="s">
         <v>194</v>
       </c>
@@ -3489,7 +3482,7 @@
       </c>
       <c r="C60" s="10"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3">
       <c r="A61" s="6" t="s">
         <v>195</v>
       </c>
@@ -3498,7 +3491,7 @@
       </c>
       <c r="C61" s="10"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
         <v>196</v>
       </c>
@@ -3507,7 +3500,7 @@
       </c>
       <c r="C62" s="10"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3">
       <c r="A63" s="6" t="s">
         <v>197</v>
       </c>
@@ -3516,7 +3509,7 @@
       </c>
       <c r="C63" s="10"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3">
       <c r="A64" s="6" t="s">
         <v>198</v>
       </c>
@@ -3525,7 +3518,7 @@
       </c>
       <c r="C64" s="10"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>199</v>
       </c>
@@ -3534,7 +3527,7 @@
       </c>
       <c r="C65" s="10"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>200</v>
       </c>
@@ -3543,7 +3536,7 @@
       </c>
       <c r="C66" s="10"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>201</v>
       </c>
@@ -3552,7 +3545,7 @@
       </c>
       <c r="C67" s="10"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>202</v>
       </c>
@@ -3561,7 +3554,7 @@
       </c>
       <c r="C68" s="10"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>203</v>
       </c>
@@ -3570,7 +3563,7 @@
       </c>
       <c r="C69" s="10"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>204</v>
       </c>
@@ -3579,7 +3572,7 @@
       </c>
       <c r="C70" s="10"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>205</v>
       </c>
@@ -3588,7 +3581,7 @@
       </c>
       <c r="C71" s="10"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>206</v>
       </c>
@@ -3597,7 +3590,7 @@
       </c>
       <c r="C72" s="10"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>207</v>
       </c>
@@ -3606,7 +3599,7 @@
       </c>
       <c r="C73" s="10"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>208</v>
       </c>
@@ -3615,7 +3608,7 @@
       </c>
       <c r="C74" s="10"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>209</v>
       </c>
@@ -3624,7 +3617,7 @@
       </c>
       <c r="C75" s="10"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>210</v>
       </c>
@@ -3633,7 +3626,7 @@
       </c>
       <c r="C76" s="10"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>211</v>
       </c>
@@ -3642,7 +3635,7 @@
       </c>
       <c r="C77" s="10"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>212</v>
       </c>
@@ -3651,7 +3644,7 @@
       </c>
       <c r="C78" s="10"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>213</v>
       </c>
@@ -3660,7 +3653,7 @@
       </c>
       <c r="C79" s="10"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>214</v>
       </c>
@@ -3669,7 +3662,7 @@
       </c>
       <c r="C80" s="10"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
         <v>215</v>
       </c>
@@ -3678,7 +3671,7 @@
       </c>
       <c r="C81" s="10"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3">
       <c r="A82" s="6" t="s">
         <v>216</v>
       </c>
@@ -3687,7 +3680,7 @@
       </c>
       <c r="C82" s="10"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>217</v>
       </c>
@@ -3696,7 +3689,7 @@
       </c>
       <c r="C83" s="10"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>218</v>
       </c>
@@ -3705,7 +3698,7 @@
       </c>
       <c r="C84" s="10"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>219</v>
       </c>
@@ -3714,7 +3707,7 @@
       </c>
       <c r="C85" s="10"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>220</v>
       </c>
@@ -3723,7 +3716,7 @@
       </c>
       <c r="C86" s="10"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3">
       <c r="A87" s="6" t="s">
         <v>221</v>
       </c>
@@ -3732,7 +3725,7 @@
       </c>
       <c r="C87" s="10"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3">
       <c r="A88" s="6" t="s">
         <v>222</v>
       </c>
@@ -3741,7 +3734,7 @@
       </c>
       <c r="C88" s="10"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3">
       <c r="A89" s="6" t="s">
         <v>223</v>
       </c>
@@ -3750,7 +3743,7 @@
       </c>
       <c r="C89" s="10"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>224</v>
       </c>
@@ -3759,7 +3752,7 @@
       </c>
       <c r="C90" s="10"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>225</v>
       </c>
@@ -3768,7 +3761,7 @@
       </c>
       <c r="C91" s="10"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>226</v>
       </c>
@@ -3777,7 +3770,7 @@
       </c>
       <c r="C92" s="10"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>227</v>
       </c>
@@ -3786,7 +3779,7 @@
       </c>
       <c r="C93" s="10"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>228</v>
       </c>
@@ -3795,7 +3788,7 @@
       </c>
       <c r="C94" s="10"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>229</v>
       </c>
@@ -3804,7 +3797,7 @@
       </c>
       <c r="C95" s="10"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>230</v>
       </c>
@@ -3813,7 +3806,7 @@
       </c>
       <c r="C96" s="10"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>231</v>
       </c>
@@ -3822,7 +3815,7 @@
       </c>
       <c r="C97" s="10"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>232</v>
       </c>
@@ -3831,7 +3824,7 @@
       </c>
       <c r="C98" s="10"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>233</v>
       </c>
@@ -3840,7 +3833,7 @@
       </c>
       <c r="C99" s="10"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>234</v>
       </c>
@@ -3849,7 +3842,7 @@
       </c>
       <c r="C100" s="10"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>235</v>
       </c>
@@ -3858,455 +3851,455 @@
       </c>
       <c r="C101" s="10"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>236</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>237</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>238</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>241</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>245</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>247</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
         <v>248</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3">
       <c r="A115" s="6" t="s">
         <v>249</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
         <v>250</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3">
       <c r="A117" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3">
       <c r="A118" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3">
       <c r="A121" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3">
       <c r="A124" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>266</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
         <v>267</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>268</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>269</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>270</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
         <v>272</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
         <v>273</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
         <v>274</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
         <v>275</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
         <v>277</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
         <v>278</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3">
       <c r="A145" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3">
       <c r="A146" s="6" t="s">
         <v>280</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3">
       <c r="A147" s="6" t="s">
         <v>281</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3">
       <c r="A148" s="6" t="s">
         <v>282</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3">
       <c r="A149" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3">
       <c r="A150" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3">
       <c r="A151" s="6" t="s">
         <v>285</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3">
       <c r="A152" s="6" t="s">
         <v>286</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3">
       <c r="A153" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3">
       <c r="A154" s="6" t="s">
         <v>288</v>
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3">
       <c r="A155" s="6" t="s">
         <v>289</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3">
       <c r="A156" s="6" t="s">
         <v>290</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3">
       <c r="A157" s="6" t="s">
         <v>291</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3">
       <c r="A158" s="6" t="s">
         <v>292</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3">
       <c r="A159" s="6" t="s">
         <v>293</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3">
       <c r="A160" s="6" t="s">
         <v>294</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5">
       <c r="A161" s="6" t="s">
         <v>295</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5">
       <c r="A162" s="6" t="s">
         <v>296</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5">
       <c r="A163" s="6" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5">
       <c r="A164" s="6" t="s">
         <v>298</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
         <v>299</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5">
       <c r="A166" s="6" t="s">
         <v>300</v>
       </c>
@@ -4315,7 +4308,7 @@
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5">
       <c r="A167" s="6" t="s">
         <v>301</v>
       </c>
@@ -4324,7 +4317,7 @@
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5">
       <c r="A168" s="6" t="s">
         <v>302</v>
       </c>
@@ -4333,7 +4326,7 @@
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5">
       <c r="A169" s="6" t="s">
         <v>303</v>
       </c>
@@ -4342,7 +4335,7 @@
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
         <v>304</v>
       </c>
@@ -4351,7 +4344,7 @@
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5">
       <c r="A171" s="15" t="s">
         <v>305</v>
       </c>
@@ -4360,7 +4353,7 @@
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5">
       <c r="A172" s="15" t="s">
         <v>306</v>
       </c>
@@ -4369,7 +4362,7 @@
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5">
       <c r="A173" s="15" t="s">
         <v>307</v>
       </c>
@@ -4378,7 +4371,7 @@
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5">
       <c r="A174" s="15" t="s">
         <v>308</v>
       </c>
@@ -4387,7 +4380,7 @@
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5">
       <c r="A175" s="15" t="s">
         <v>309</v>
       </c>
@@ -4396,7 +4389,7 @@
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5">
       <c r="A176" s="15" t="s">
         <v>310</v>
       </c>
@@ -4405,7 +4398,7 @@
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5">
       <c r="A177" s="15" t="s">
         <v>311</v>
       </c>
@@ -4414,7 +4407,7 @@
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5">
       <c r="A178" s="15" t="s">
         <v>312</v>
       </c>
@@ -4423,7 +4416,7 @@
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5">
       <c r="A179" s="15" t="s">
         <v>313</v>
       </c>
@@ -4432,7 +4425,7 @@
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5">
       <c r="A180" s="15" t="s">
         <v>314</v>
       </c>
@@ -4441,7 +4434,7 @@
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5">
       <c r="A181" s="15" t="s">
         <v>315</v>
       </c>
@@ -4450,7 +4443,7 @@
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5">
       <c r="A182" s="15" t="s">
         <v>316</v>
       </c>
@@ -4459,7 +4452,7 @@
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5">
       <c r="A183" s="15" t="s">
         <v>317</v>
       </c>
@@ -4468,7 +4461,7 @@
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5">
       <c r="A184" s="15" t="s">
         <v>318</v>
       </c>
@@ -4477,7 +4470,7 @@
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5">
       <c r="A185" s="15" t="s">
         <v>319</v>
       </c>
@@ -4486,7 +4479,7 @@
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5">
       <c r="A186" s="15" t="s">
         <v>320</v>
       </c>
@@ -4495,7 +4488,7 @@
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5">
       <c r="A187" s="15" t="s">
         <v>321</v>
       </c>
@@ -4504,7 +4497,7 @@
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5">
       <c r="A188" s="15" t="s">
         <v>322</v>
       </c>
@@ -4513,7 +4506,7 @@
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5">
       <c r="A189" s="15" t="s">
         <v>323</v>
       </c>
@@ -4522,7 +4515,7 @@
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5">
       <c r="A190" s="15" t="s">
         <v>324</v>
       </c>
@@ -4531,7 +4524,7 @@
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5">
       <c r="A191" s="15" t="s">
         <v>325</v>
       </c>
@@ -4540,7 +4533,7 @@
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5">
       <c r="A192" s="15" t="s">
         <v>326</v>
       </c>
@@ -4549,7 +4542,7 @@
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5">
       <c r="A193" s="15" t="s">
         <v>327</v>
       </c>
@@ -4558,7 +4551,7 @@
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5">
       <c r="A194" s="15" t="s">
         <v>328</v>
       </c>
@@ -4567,7 +4560,7 @@
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5">
       <c r="A195" s="15" t="s">
         <v>329</v>
       </c>
@@ -4576,7 +4569,7 @@
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5">
       <c r="A196" s="15" t="s">
         <v>330</v>
       </c>
@@ -4585,7 +4578,7 @@
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5">
       <c r="A197" s="15" t="s">
         <v>331</v>
       </c>
@@ -4594,7 +4587,7 @@
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5">
       <c r="A198" s="15" t="s">
         <v>332</v>
       </c>
@@ -4603,7 +4596,7 @@
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5">
       <c r="A199" s="15" t="s">
         <v>333</v>
       </c>
@@ -4612,7 +4605,7 @@
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5">
       <c r="A200" s="15" t="s">
         <v>334</v>
       </c>
@@ -4621,7 +4614,7 @@
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5">
       <c r="A201" s="15" t="s">
         <v>335</v>
       </c>
@@ -4630,7 +4623,7 @@
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5">
       <c r="A202" s="15" t="s">
         <v>336</v>
       </c>
@@ -4639,7 +4632,7 @@
       <c r="D202" s="13"/>
       <c r="E202" s="13"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5">
       <c r="A203" s="15" t="s">
         <v>337</v>
       </c>
@@ -4648,7 +4641,7 @@
       <c r="D203" s="13"/>
       <c r="E203" s="13"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5">
       <c r="A204" s="15" t="s">
         <v>338</v>
       </c>
@@ -4657,7 +4650,7 @@
       <c r="D204" s="13"/>
       <c r="E204" s="13"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5">
       <c r="A205" s="15" t="s">
         <v>339</v>
       </c>
@@ -4666,7 +4659,7 @@
       <c r="D205" s="13"/>
       <c r="E205" s="13"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5">
       <c r="A206" s="15" t="s">
         <v>340</v>
       </c>
@@ -4675,7 +4668,7 @@
       <c r="D206" s="13"/>
       <c r="E206" s="13"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5">
       <c r="A207" s="15" t="s">
         <v>341</v>
       </c>
@@ -4684,7 +4677,7 @@
       <c r="D207" s="13"/>
       <c r="E207" s="13"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5">
       <c r="A208" s="15" t="s">
         <v>342</v>
       </c>
@@ -4693,7 +4686,7 @@
       <c r="D208" s="13"/>
       <c r="E208" s="13"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:5">
       <c r="A209" s="15" t="s">
         <v>343</v>
       </c>
@@ -4702,7 +4695,7 @@
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:5">
       <c r="A210" s="15" t="s">
         <v>344</v>
       </c>
@@ -4711,7 +4704,7 @@
       <c r="D210" s="13"/>
       <c r="E210" s="13"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:5">
       <c r="A211" s="15" t="s">
         <v>345</v>
       </c>
@@ -4720,7 +4713,7 @@
       <c r="D211" s="13"/>
       <c r="E211" s="13"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:5">
       <c r="A212" s="15" t="s">
         <v>346</v>
       </c>
@@ -4729,7 +4722,7 @@
       <c r="D212" s="13"/>
       <c r="E212" s="13"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:5">
       <c r="A213" s="15" t="s">
         <v>347</v>
       </c>
@@ -4738,7 +4731,7 @@
       <c r="D213" s="13"/>
       <c r="E213" s="13"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:5">
       <c r="A214" s="15" t="s">
         <v>348</v>
       </c>
@@ -4747,7 +4740,7 @@
       <c r="D214" s="13"/>
       <c r="E214" s="13"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:5">
       <c r="A215" s="15" t="s">
         <v>349</v>
       </c>
@@ -4756,7 +4749,7 @@
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:5">
       <c r="A216" s="15" t="s">
         <v>350</v>
       </c>
@@ -4765,7 +4758,7 @@
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:5">
       <c r="A217" s="15" t="s">
         <v>351</v>
       </c>
@@ -4774,7 +4767,7 @@
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:5">
       <c r="A218" s="15" t="s">
         <v>352</v>
       </c>
@@ -4783,7 +4776,7 @@
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:5">
       <c r="A219" s="15" t="s">
         <v>353</v>
       </c>
@@ -4792,7 +4785,7 @@
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:5">
       <c r="A220" s="15" t="s">
         <v>354</v>
       </c>
@@ -4801,7 +4794,7 @@
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:5">
       <c r="A221" s="15" t="s">
         <v>355</v>
       </c>
@@ -4810,7 +4803,7 @@
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:5">
       <c r="A222" s="15" t="s">
         <v>356</v>
       </c>
@@ -4819,7 +4812,7 @@
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:5">
       <c r="A223" s="15" t="s">
         <v>357</v>
       </c>
@@ -4828,7 +4821,7 @@
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:5">
       <c r="A224" s="15" t="s">
         <v>358</v>
       </c>
@@ -4837,7 +4830,7 @@
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:5">
       <c r="A225" s="15" t="s">
         <v>359</v>
       </c>
@@ -4846,7 +4839,7 @@
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:5">
       <c r="A226" s="15" t="s">
         <v>360</v>
       </c>
@@ -4855,7 +4848,7 @@
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:5">
       <c r="A227" s="15" t="s">
         <v>361</v>
       </c>
@@ -4864,7 +4857,7 @@
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:5">
       <c r="A228" s="15" t="s">
         <v>362</v>
       </c>
@@ -4873,7 +4866,7 @@
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:5">
       <c r="A229" s="15" t="s">
         <v>363</v>
       </c>
@@ -4882,7 +4875,7 @@
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:5">
       <c r="A230" s="15" t="s">
         <v>364</v>
       </c>
@@ -4891,7 +4884,7 @@
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:5">
       <c r="A231" s="15" t="s">
         <v>365</v>
       </c>
@@ -4900,7 +4893,7 @@
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:5">
       <c r="A232" s="15" t="s">
         <v>366</v>
       </c>
@@ -4909,7 +4902,7 @@
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:5">
       <c r="A233" s="15" t="s">
         <v>367</v>
       </c>
@@ -4918,7 +4911,7 @@
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:5">
       <c r="A234" s="15" t="s">
         <v>368</v>
       </c>
@@ -4927,7 +4920,7 @@
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:5">
       <c r="A235" s="15" t="s">
         <v>369</v>
       </c>
@@ -4936,7 +4929,7 @@
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:5">
       <c r="A236" s="15" t="s">
         <v>370</v>
       </c>
@@ -4945,7 +4938,7 @@
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:5">
       <c r="A237" s="15" t="s">
         <v>371</v>
       </c>
@@ -4954,7 +4947,7 @@
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:5">
       <c r="A238" s="15" t="s">
         <v>372</v>
       </c>
@@ -4963,7 +4956,7 @@
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:5">
       <c r="A239" s="15" t="s">
         <v>373</v>
       </c>
@@ -4972,7 +4965,7 @@
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:5">
       <c r="A240" s="15" t="s">
         <v>374</v>
       </c>
@@ -4981,7 +4974,7 @@
       <c r="D240" s="13"/>
       <c r="E240" s="13"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5">
       <c r="A241" s="15" t="s">
         <v>375</v>
       </c>
@@ -4990,7 +4983,7 @@
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5">
       <c r="A242" s="15" t="s">
         <v>376</v>
       </c>
@@ -4999,7 +4992,7 @@
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:5">
       <c r="A243" s="15" t="s">
         <v>377</v>
       </c>
@@ -5008,7 +5001,7 @@
       <c r="D243" s="13"/>
       <c r="E243" s="13"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5">
       <c r="A244" s="15" t="s">
         <v>378</v>
       </c>
@@ -5017,7 +5010,7 @@
       <c r="D244" s="13"/>
       <c r="E244" s="13"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:5">
       <c r="A245" s="15" t="s">
         <v>379</v>
       </c>
@@ -5026,7 +5019,7 @@
       <c r="D245" s="13"/>
       <c r="E245" s="13"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:5">
       <c r="A246" s="15" t="s">
         <v>380</v>
       </c>
@@ -5035,7 +5028,7 @@
       <c r="D246" s="13"/>
       <c r="E246" s="13"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:5">
       <c r="A247" s="15" t="s">
         <v>381</v>
       </c>
@@ -5044,175 +5037,175 @@
       <c r="D247" s="13"/>
       <c r="E247" s="13"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5">
       <c r="A248" s="15" t="s">
         <v>382</v>
       </c>
       <c r="B248" s="16"/>
       <c r="C248" s="16"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5">
       <c r="A249" s="15" t="s">
         <v>383</v>
       </c>
       <c r="B249" s="16"/>
       <c r="C249" s="16"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:5">
       <c r="A250" s="15" t="s">
         <v>384</v>
       </c>
       <c r="B250" s="16"/>
       <c r="C250" s="16"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5">
       <c r="A251" s="15" t="s">
         <v>385</v>
       </c>
       <c r="B251" s="16"/>
       <c r="C251" s="16"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5">
       <c r="A252" s="15" t="s">
         <v>386</v>
       </c>
       <c r="B252" s="16"/>
       <c r="C252" s="16"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5">
       <c r="A253" s="6" t="s">
         <v>387</v>
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5">
       <c r="A254" s="15" t="s">
         <v>388</v>
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5">
       <c r="A255" s="15" t="s">
         <v>389</v>
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5">
       <c r="A256" s="15" t="s">
         <v>390</v>
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3">
       <c r="A257" s="15" t="s">
         <v>391</v>
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3">
       <c r="A258" s="15" t="s">
         <v>392</v>
       </c>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3">
       <c r="A259" s="15" t="s">
         <v>393</v>
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3">
       <c r="A260" s="15" t="s">
         <v>394</v>
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3">
       <c r="A261" s="15" t="s">
         <v>395</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3">
       <c r="A262" s="15" t="s">
         <v>396</v>
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3">
       <c r="A263" s="15" t="s">
         <v>397</v>
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3">
       <c r="A264" s="15" t="s">
         <v>398</v>
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3">
       <c r="A265" s="15" t="s">
         <v>399</v>
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3">
       <c r="A266" s="15" t="s">
         <v>400</v>
       </c>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3">
       <c r="A267" s="6" t="s">
         <v>401</v>
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3">
       <c r="A268" s="15" t="s">
         <v>402</v>
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:3">
       <c r="A269" s="15" t="s">
         <v>403</v>
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3">
       <c r="A270" s="15" t="s">
         <v>404</v>
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3">
       <c r="A271" s="15" t="s">
         <v>405</v>
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3">
       <c r="A272" s="15" t="s">
         <v>406</v>
       </c>
@@ -5220,280 +5213,280 @@
       <c r="C272" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$272"/>
+  <autoFilter ref="A1:C272"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
-    <hyperlink r:id="rId28" ref="A29"/>
-    <hyperlink r:id="rId29" ref="A30"/>
-    <hyperlink r:id="rId30" ref="A31"/>
-    <hyperlink r:id="rId31" ref="A32"/>
-    <hyperlink r:id="rId32" ref="A33"/>
-    <hyperlink r:id="rId33" ref="A34"/>
-    <hyperlink r:id="rId34" ref="A35"/>
-    <hyperlink r:id="rId35" ref="A36"/>
-    <hyperlink r:id="rId36" ref="A37"/>
-    <hyperlink r:id="rId37" ref="A38"/>
-    <hyperlink r:id="rId38" ref="A39"/>
-    <hyperlink r:id="rId39" ref="A40"/>
-    <hyperlink r:id="rId40" ref="A41"/>
-    <hyperlink r:id="rId41" ref="A42"/>
-    <hyperlink r:id="rId42" ref="A43"/>
-    <hyperlink r:id="rId43" ref="A44"/>
-    <hyperlink r:id="rId44" ref="A45"/>
-    <hyperlink r:id="rId45" ref="A46"/>
-    <hyperlink r:id="rId46" ref="A47"/>
-    <hyperlink r:id="rId47" ref="A48"/>
-    <hyperlink r:id="rId48" ref="A49"/>
-    <hyperlink r:id="rId49" ref="A50"/>
-    <hyperlink r:id="rId50" ref="A51"/>
-    <hyperlink r:id="rId51" ref="A52"/>
-    <hyperlink r:id="rId52" ref="A53"/>
-    <hyperlink r:id="rId53" ref="A54"/>
-    <hyperlink r:id="rId54" ref="A55"/>
-    <hyperlink r:id="rId55" ref="A56"/>
-    <hyperlink r:id="rId56" ref="A57"/>
-    <hyperlink r:id="rId57" ref="A58"/>
-    <hyperlink r:id="rId58" ref="A59"/>
-    <hyperlink r:id="rId59" ref="A60"/>
-    <hyperlink r:id="rId60" ref="A61"/>
-    <hyperlink r:id="rId61" ref="A62"/>
-    <hyperlink r:id="rId62" ref="A63"/>
-    <hyperlink r:id="rId63" ref="A64"/>
-    <hyperlink r:id="rId64" ref="A65"/>
-    <hyperlink r:id="rId65" ref="A66"/>
-    <hyperlink r:id="rId66" ref="A67"/>
-    <hyperlink r:id="rId67" ref="A68"/>
-    <hyperlink r:id="rId68" ref="A69"/>
-    <hyperlink r:id="rId69" ref="A70"/>
-    <hyperlink r:id="rId70" ref="A71"/>
-    <hyperlink r:id="rId71" ref="A72"/>
-    <hyperlink r:id="rId72" ref="A73"/>
-    <hyperlink r:id="rId73" ref="A74"/>
-    <hyperlink r:id="rId74" ref="A75"/>
-    <hyperlink r:id="rId75" ref="A76"/>
-    <hyperlink r:id="rId76" ref="A77"/>
-    <hyperlink r:id="rId77" ref="A78"/>
-    <hyperlink r:id="rId78" ref="A79"/>
-    <hyperlink r:id="rId79" ref="A80"/>
-    <hyperlink r:id="rId80" ref="A81"/>
-    <hyperlink r:id="rId81" ref="A82"/>
-    <hyperlink r:id="rId82" ref="A83"/>
-    <hyperlink r:id="rId83" ref="A84"/>
-    <hyperlink r:id="rId84" ref="A85"/>
-    <hyperlink r:id="rId85" ref="A86"/>
-    <hyperlink r:id="rId86" ref="A87"/>
-    <hyperlink r:id="rId87" ref="A88"/>
-    <hyperlink r:id="rId88" ref="A89"/>
-    <hyperlink r:id="rId89" ref="A90"/>
-    <hyperlink r:id="rId90" ref="A91"/>
-    <hyperlink r:id="rId91" ref="A92"/>
-    <hyperlink r:id="rId92" ref="A93"/>
-    <hyperlink r:id="rId93" ref="A94"/>
-    <hyperlink r:id="rId94" ref="A95"/>
-    <hyperlink r:id="rId95" ref="A96"/>
-    <hyperlink r:id="rId96" ref="A97"/>
-    <hyperlink r:id="rId97" ref="A98"/>
-    <hyperlink r:id="rId98" ref="A99"/>
-    <hyperlink r:id="rId99" ref="A100"/>
-    <hyperlink r:id="rId100" ref="A101"/>
-    <hyperlink r:id="rId101" ref="A102"/>
-    <hyperlink r:id="rId102" ref="A103"/>
-    <hyperlink r:id="rId103" ref="A104"/>
-    <hyperlink r:id="rId104" ref="A105"/>
-    <hyperlink r:id="rId105" ref="A106"/>
-    <hyperlink r:id="rId106" ref="A107"/>
-    <hyperlink r:id="rId107" ref="A108"/>
-    <hyperlink r:id="rId108" ref="A109"/>
-    <hyperlink r:id="rId109" ref="A110"/>
-    <hyperlink r:id="rId110" ref="A111"/>
-    <hyperlink r:id="rId111" ref="A112"/>
-    <hyperlink r:id="rId112" ref="A113"/>
-    <hyperlink r:id="rId113" ref="A114"/>
-    <hyperlink r:id="rId114" ref="A115"/>
-    <hyperlink r:id="rId115" ref="A116"/>
-    <hyperlink r:id="rId116" ref="A117"/>
-    <hyperlink r:id="rId117" ref="A118"/>
-    <hyperlink r:id="rId118" ref="A119"/>
-    <hyperlink r:id="rId119" ref="A120"/>
-    <hyperlink r:id="rId120" ref="A121"/>
-    <hyperlink r:id="rId121" ref="A122"/>
-    <hyperlink r:id="rId122" ref="A123"/>
-    <hyperlink r:id="rId123" ref="A124"/>
-    <hyperlink r:id="rId124" ref="A125"/>
-    <hyperlink r:id="rId125" ref="A126"/>
-    <hyperlink r:id="rId126" ref="A127"/>
-    <hyperlink r:id="rId127" ref="A128"/>
-    <hyperlink r:id="rId128" ref="A129"/>
-    <hyperlink r:id="rId129" ref="A130"/>
-    <hyperlink r:id="rId130" ref="A131"/>
-    <hyperlink r:id="rId131" ref="A132"/>
-    <hyperlink r:id="rId132" ref="A133"/>
-    <hyperlink r:id="rId133" ref="A134"/>
-    <hyperlink r:id="rId134" ref="A135"/>
-    <hyperlink r:id="rId135" ref="A136"/>
-    <hyperlink r:id="rId136" ref="A137"/>
-    <hyperlink r:id="rId137" ref="A138"/>
-    <hyperlink r:id="rId138" ref="A139"/>
-    <hyperlink r:id="rId139" ref="A140"/>
-    <hyperlink r:id="rId140" ref="A141"/>
-    <hyperlink r:id="rId141" ref="A142"/>
-    <hyperlink r:id="rId142" ref="A143"/>
-    <hyperlink r:id="rId143" ref="A144"/>
-    <hyperlink r:id="rId144" ref="A145"/>
-    <hyperlink r:id="rId145" ref="A146"/>
-    <hyperlink r:id="rId146" ref="A147"/>
-    <hyperlink r:id="rId147" ref="A148"/>
-    <hyperlink r:id="rId148" ref="A149"/>
-    <hyperlink r:id="rId149" ref="A150"/>
-    <hyperlink r:id="rId150" ref="A151"/>
-    <hyperlink r:id="rId151" ref="A152"/>
-    <hyperlink r:id="rId152" ref="A153"/>
-    <hyperlink r:id="rId153" ref="A154"/>
-    <hyperlink r:id="rId154" ref="A155"/>
-    <hyperlink r:id="rId155" ref="A156"/>
-    <hyperlink r:id="rId156" ref="A157"/>
-    <hyperlink r:id="rId157" ref="A158"/>
-    <hyperlink r:id="rId158" ref="A159"/>
-    <hyperlink r:id="rId159" ref="A160"/>
-    <hyperlink r:id="rId160" ref="A161"/>
-    <hyperlink r:id="rId161" ref="A162"/>
-    <hyperlink r:id="rId162" ref="A163"/>
-    <hyperlink r:id="rId163" ref="A164"/>
-    <hyperlink r:id="rId164" ref="A165"/>
-    <hyperlink r:id="rId165" ref="A166"/>
-    <hyperlink r:id="rId166" ref="A167"/>
-    <hyperlink r:id="rId167" ref="A168"/>
-    <hyperlink r:id="rId168" ref="A169"/>
-    <hyperlink r:id="rId169" ref="A170"/>
-    <hyperlink r:id="rId170" ref="A171"/>
-    <hyperlink r:id="rId171" ref="A172"/>
-    <hyperlink r:id="rId172" ref="A173"/>
-    <hyperlink r:id="rId173" ref="A174"/>
-    <hyperlink r:id="rId174" ref="A175"/>
-    <hyperlink r:id="rId175" ref="A176"/>
-    <hyperlink r:id="rId176" ref="A177"/>
-    <hyperlink r:id="rId177" ref="A178"/>
-    <hyperlink r:id="rId178" ref="A179"/>
-    <hyperlink r:id="rId179" ref="A180"/>
-    <hyperlink r:id="rId180" ref="A181"/>
-    <hyperlink r:id="rId181" ref="A182"/>
-    <hyperlink r:id="rId182" ref="A183"/>
-    <hyperlink r:id="rId183" ref="A184"/>
-    <hyperlink r:id="rId184" ref="A185"/>
-    <hyperlink r:id="rId185" ref="A186"/>
-    <hyperlink r:id="rId186" ref="A187"/>
-    <hyperlink r:id="rId187" ref="A188"/>
-    <hyperlink r:id="rId188" ref="A189"/>
-    <hyperlink r:id="rId189" ref="A190"/>
-    <hyperlink r:id="rId190" ref="A191"/>
-    <hyperlink r:id="rId191" ref="A192"/>
-    <hyperlink r:id="rId192" ref="A193"/>
-    <hyperlink r:id="rId193" ref="A194"/>
-    <hyperlink r:id="rId194" ref="A195"/>
-    <hyperlink r:id="rId195" ref="A196"/>
-    <hyperlink r:id="rId196" ref="A197"/>
-    <hyperlink r:id="rId197" ref="A198"/>
-    <hyperlink r:id="rId198" ref="A199"/>
-    <hyperlink r:id="rId199" ref="A200"/>
-    <hyperlink r:id="rId200" ref="A201"/>
-    <hyperlink r:id="rId201" ref="A202"/>
-    <hyperlink r:id="rId202" ref="A203"/>
-    <hyperlink r:id="rId203" ref="A204"/>
-    <hyperlink r:id="rId204" ref="A205"/>
-    <hyperlink r:id="rId205" ref="A206"/>
-    <hyperlink r:id="rId206" ref="A207"/>
-    <hyperlink r:id="rId207" ref="A208"/>
-    <hyperlink r:id="rId208" ref="A209"/>
-    <hyperlink r:id="rId209" ref="A210"/>
-    <hyperlink r:id="rId210" ref="A211"/>
-    <hyperlink r:id="rId211" ref="A212"/>
-    <hyperlink r:id="rId212" ref="A213"/>
-    <hyperlink r:id="rId213" ref="A214"/>
-    <hyperlink r:id="rId214" ref="A215"/>
-    <hyperlink r:id="rId215" ref="A216"/>
-    <hyperlink r:id="rId216" ref="A217"/>
-    <hyperlink r:id="rId217" ref="A218"/>
-    <hyperlink r:id="rId218" ref="A219"/>
-    <hyperlink r:id="rId219" ref="A220"/>
-    <hyperlink r:id="rId220" ref="A221"/>
-    <hyperlink r:id="rId221" ref="A222"/>
-    <hyperlink r:id="rId222" ref="A223"/>
-    <hyperlink r:id="rId223" ref="A224"/>
-    <hyperlink r:id="rId224" ref="A225"/>
-    <hyperlink r:id="rId225" ref="A226"/>
-    <hyperlink r:id="rId226" ref="A227"/>
-    <hyperlink r:id="rId227" ref="A228"/>
-    <hyperlink r:id="rId228" ref="A229"/>
-    <hyperlink r:id="rId229" ref="A230"/>
-    <hyperlink r:id="rId230" ref="A231"/>
-    <hyperlink r:id="rId231" ref="A232"/>
-    <hyperlink r:id="rId232" ref="A233"/>
-    <hyperlink r:id="rId233" ref="A234"/>
-    <hyperlink r:id="rId234" ref="A235"/>
-    <hyperlink r:id="rId235" ref="A236"/>
-    <hyperlink r:id="rId236" ref="A237"/>
-    <hyperlink r:id="rId237" ref="A238"/>
-    <hyperlink r:id="rId238" ref="A239"/>
-    <hyperlink r:id="rId239" ref="A240"/>
-    <hyperlink r:id="rId240" ref="A241"/>
-    <hyperlink r:id="rId241" ref="A242"/>
-    <hyperlink r:id="rId242" ref="A243"/>
-    <hyperlink r:id="rId243" ref="A244"/>
-    <hyperlink r:id="rId244" ref="A245"/>
-    <hyperlink r:id="rId245" ref="A246"/>
-    <hyperlink r:id="rId246" ref="A247"/>
-    <hyperlink r:id="rId247" ref="A248"/>
-    <hyperlink r:id="rId248" ref="A249"/>
-    <hyperlink r:id="rId249" ref="A250"/>
-    <hyperlink r:id="rId250" ref="A251"/>
-    <hyperlink r:id="rId251" ref="A252"/>
-    <hyperlink r:id="rId252" ref="A253"/>
-    <hyperlink r:id="rId253" ref="A254"/>
-    <hyperlink r:id="rId254" ref="A255"/>
-    <hyperlink r:id="rId255" ref="A256"/>
-    <hyperlink r:id="rId256" ref="A257"/>
-    <hyperlink r:id="rId257" ref="A258"/>
-    <hyperlink r:id="rId258" ref="A259"/>
-    <hyperlink r:id="rId259" ref="A260"/>
-    <hyperlink r:id="rId260" ref="A261"/>
-    <hyperlink r:id="rId261" ref="A262"/>
-    <hyperlink r:id="rId262" ref="A263"/>
-    <hyperlink r:id="rId263" ref="A264"/>
-    <hyperlink r:id="rId264" ref="A265"/>
-    <hyperlink r:id="rId265" ref="A266"/>
-    <hyperlink r:id="rId266" ref="A267"/>
-    <hyperlink r:id="rId267" ref="A268"/>
-    <hyperlink r:id="rId268" ref="A269"/>
-    <hyperlink r:id="rId269" ref="A270"/>
-    <hyperlink r:id="rId270" ref="A271"/>
-    <hyperlink r:id="rId271" ref="A272"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
+    <hyperlink ref="A132" r:id="rId131"/>
+    <hyperlink ref="A133" r:id="rId132"/>
+    <hyperlink ref="A134" r:id="rId133"/>
+    <hyperlink ref="A135" r:id="rId134"/>
+    <hyperlink ref="A136" r:id="rId135"/>
+    <hyperlink ref="A137" r:id="rId136"/>
+    <hyperlink ref="A138" r:id="rId137"/>
+    <hyperlink ref="A139" r:id="rId138"/>
+    <hyperlink ref="A140" r:id="rId139"/>
+    <hyperlink ref="A141" r:id="rId140"/>
+    <hyperlink ref="A142" r:id="rId141"/>
+    <hyperlink ref="A143" r:id="rId142"/>
+    <hyperlink ref="A144" r:id="rId143"/>
+    <hyperlink ref="A145" r:id="rId144"/>
+    <hyperlink ref="A146" r:id="rId145"/>
+    <hyperlink ref="A147" r:id="rId146"/>
+    <hyperlink ref="A148" r:id="rId147"/>
+    <hyperlink ref="A149" r:id="rId148"/>
+    <hyperlink ref="A150" r:id="rId149"/>
+    <hyperlink ref="A151" r:id="rId150"/>
+    <hyperlink ref="A152" r:id="rId151"/>
+    <hyperlink ref="A153" r:id="rId152"/>
+    <hyperlink ref="A154" r:id="rId153"/>
+    <hyperlink ref="A155" r:id="rId154"/>
+    <hyperlink ref="A156" r:id="rId155"/>
+    <hyperlink ref="A157" r:id="rId156"/>
+    <hyperlink ref="A158" r:id="rId157"/>
+    <hyperlink ref="A159" r:id="rId158"/>
+    <hyperlink ref="A160" r:id="rId159"/>
+    <hyperlink ref="A161" r:id="rId160"/>
+    <hyperlink ref="A162" r:id="rId161"/>
+    <hyperlink ref="A163" r:id="rId162"/>
+    <hyperlink ref="A164" r:id="rId163"/>
+    <hyperlink ref="A165" r:id="rId164"/>
+    <hyperlink ref="A166" r:id="rId165"/>
+    <hyperlink ref="A167" r:id="rId166"/>
+    <hyperlink ref="A168" r:id="rId167"/>
+    <hyperlink ref="A169" r:id="rId168"/>
+    <hyperlink ref="A170" r:id="rId169"/>
+    <hyperlink ref="A171" r:id="rId170"/>
+    <hyperlink ref="A172" r:id="rId171"/>
+    <hyperlink ref="A173" r:id="rId172"/>
+    <hyperlink ref="A174" r:id="rId173"/>
+    <hyperlink ref="A175" r:id="rId174"/>
+    <hyperlink ref="A176" r:id="rId175"/>
+    <hyperlink ref="A177" r:id="rId176"/>
+    <hyperlink ref="A178" r:id="rId177"/>
+    <hyperlink ref="A179" r:id="rId178"/>
+    <hyperlink ref="A180" r:id="rId179"/>
+    <hyperlink ref="A181" r:id="rId180"/>
+    <hyperlink ref="A182" r:id="rId181"/>
+    <hyperlink ref="A183" r:id="rId182"/>
+    <hyperlink ref="A184" r:id="rId183"/>
+    <hyperlink ref="A185" r:id="rId184"/>
+    <hyperlink ref="A186" r:id="rId185"/>
+    <hyperlink ref="A187" r:id="rId186"/>
+    <hyperlink ref="A188" r:id="rId187"/>
+    <hyperlink ref="A189" r:id="rId188"/>
+    <hyperlink ref="A190" r:id="rId189"/>
+    <hyperlink ref="A191" r:id="rId190"/>
+    <hyperlink ref="A192" r:id="rId191"/>
+    <hyperlink ref="A193" r:id="rId192"/>
+    <hyperlink ref="A194" r:id="rId193"/>
+    <hyperlink ref="A195" r:id="rId194"/>
+    <hyperlink ref="A196" r:id="rId195"/>
+    <hyperlink ref="A197" r:id="rId196"/>
+    <hyperlink ref="A198" r:id="rId197"/>
+    <hyperlink ref="A199" r:id="rId198"/>
+    <hyperlink ref="A200" r:id="rId199"/>
+    <hyperlink ref="A201" r:id="rId200"/>
+    <hyperlink ref="A202" r:id="rId201"/>
+    <hyperlink ref="A203" r:id="rId202"/>
+    <hyperlink ref="A204" r:id="rId203"/>
+    <hyperlink ref="A205" r:id="rId204"/>
+    <hyperlink ref="A206" r:id="rId205"/>
+    <hyperlink ref="A207" r:id="rId206"/>
+    <hyperlink ref="A208" r:id="rId207"/>
+    <hyperlink ref="A209" r:id="rId208"/>
+    <hyperlink ref="A210" r:id="rId209"/>
+    <hyperlink ref="A211" r:id="rId210"/>
+    <hyperlink ref="A212" r:id="rId211"/>
+    <hyperlink ref="A213" r:id="rId212"/>
+    <hyperlink ref="A214" r:id="rId213"/>
+    <hyperlink ref="A215" r:id="rId214"/>
+    <hyperlink ref="A216" r:id="rId215"/>
+    <hyperlink ref="A217" r:id="rId216"/>
+    <hyperlink ref="A218" r:id="rId217"/>
+    <hyperlink ref="A219" r:id="rId218"/>
+    <hyperlink ref="A220" r:id="rId219"/>
+    <hyperlink ref="A221" r:id="rId220"/>
+    <hyperlink ref="A222" r:id="rId221"/>
+    <hyperlink ref="A223" r:id="rId222"/>
+    <hyperlink ref="A224" r:id="rId223"/>
+    <hyperlink ref="A225" r:id="rId224"/>
+    <hyperlink ref="A226" r:id="rId225"/>
+    <hyperlink ref="A227" r:id="rId226"/>
+    <hyperlink ref="A228" r:id="rId227"/>
+    <hyperlink ref="A229" r:id="rId228"/>
+    <hyperlink ref="A230" r:id="rId229"/>
+    <hyperlink ref="A231" r:id="rId230"/>
+    <hyperlink ref="A232" r:id="rId231"/>
+    <hyperlink ref="A233" r:id="rId232"/>
+    <hyperlink ref="A234" r:id="rId233"/>
+    <hyperlink ref="A235" r:id="rId234"/>
+    <hyperlink ref="A236" r:id="rId235"/>
+    <hyperlink ref="A237" r:id="rId236"/>
+    <hyperlink ref="A238" r:id="rId237"/>
+    <hyperlink ref="A239" r:id="rId238"/>
+    <hyperlink ref="A240" r:id="rId239"/>
+    <hyperlink ref="A241" r:id="rId240"/>
+    <hyperlink ref="A242" r:id="rId241"/>
+    <hyperlink ref="A243" r:id="rId242"/>
+    <hyperlink ref="A244" r:id="rId243"/>
+    <hyperlink ref="A245" r:id="rId244"/>
+    <hyperlink ref="A246" r:id="rId245"/>
+    <hyperlink ref="A247" r:id="rId246"/>
+    <hyperlink ref="A248" r:id="rId247"/>
+    <hyperlink ref="A249" r:id="rId248"/>
+    <hyperlink ref="A250" r:id="rId249"/>
+    <hyperlink ref="A251" r:id="rId250"/>
+    <hyperlink ref="A252" r:id="rId251"/>
+    <hyperlink ref="A253" r:id="rId252"/>
+    <hyperlink ref="A254" r:id="rId253"/>
+    <hyperlink ref="A255" r:id="rId254"/>
+    <hyperlink ref="A256" r:id="rId255"/>
+    <hyperlink ref="A257" r:id="rId256"/>
+    <hyperlink ref="A258" r:id="rId257"/>
+    <hyperlink ref="A259" r:id="rId258"/>
+    <hyperlink ref="A260" r:id="rId259"/>
+    <hyperlink ref="A261" r:id="rId260"/>
+    <hyperlink ref="A262" r:id="rId261"/>
+    <hyperlink ref="A263" r:id="rId262"/>
+    <hyperlink ref="A264" r:id="rId263"/>
+    <hyperlink ref="A265" r:id="rId264"/>
+    <hyperlink ref="A266" r:id="rId265"/>
+    <hyperlink ref="A267" r:id="rId266"/>
+    <hyperlink ref="A268" r:id="rId267"/>
+    <hyperlink ref="A269" r:id="rId268"/>
+    <hyperlink ref="A270" r:id="rId269"/>
+    <hyperlink ref="A271" r:id="rId270"/>
+    <hyperlink ref="A272" r:id="rId271"/>
   </hyperlinks>
-  <drawing r:id="rId272"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>